--- a/LubanTools/DesignerConfigs/Datas/T_业务逻辑/LevelData_0.xlsx
+++ b/LubanTools/DesignerConfigs/Datas/T_业务逻辑/LevelData_0.xlsx
@@ -1041,7 +1041,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1126,7 +1126,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>17</v>
@@ -1211,7 +1211,7 @@
         <v>6</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>23</v>
